--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H2">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I2">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J2">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.98318866666667</v>
+        <v>21.106626</v>
       </c>
       <c r="N2">
-        <v>38.949566</v>
+        <v>63.319878</v>
       </c>
       <c r="O2">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="P2">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="Q2">
-        <v>5966.493976279758</v>
+        <v>118.186299007488</v>
       </c>
       <c r="R2">
-        <v>53698.44578651781</v>
+        <v>1063.676691067392</v>
       </c>
       <c r="S2">
-        <v>0.2164381870334598</v>
+        <v>0.2548823254083812</v>
       </c>
       <c r="T2">
-        <v>0.2164381870334598</v>
+        <v>0.2548823254083812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H3">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I3">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J3">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.290191</v>
       </c>
       <c r="O3">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="P3">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="Q3">
-        <v>963.5636687492009</v>
+        <v>11.740616340736</v>
       </c>
       <c r="R3">
-        <v>8672.073018742807</v>
+        <v>105.665547066624</v>
       </c>
       <c r="S3">
-        <v>0.03495385638274341</v>
+        <v>0.02531998734019782</v>
       </c>
       <c r="T3">
-        <v>0.03495385638274341</v>
+        <v>0.02531998734019782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H4">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I4">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J4">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>134.239002</v>
       </c>
       <c r="O4">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="P4">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="Q4">
-        <v>20563.4177493738</v>
+        <v>250.556560276992</v>
       </c>
       <c r="R4">
-        <v>185070.7597443642</v>
+        <v>2255.009042492928</v>
       </c>
       <c r="S4">
-        <v>0.7459504483839687</v>
+        <v>0.5403539942111122</v>
       </c>
       <c r="T4">
-        <v>0.7459504483839687</v>
+        <v>0.5403539942111122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.673579</v>
       </c>
       <c r="I5">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J5">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.98318866666667</v>
+        <v>21.106626</v>
       </c>
       <c r="N5">
-        <v>38.949566</v>
+        <v>63.319878</v>
       </c>
       <c r="O5">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="P5">
-        <v>0.2170149059254416</v>
+        <v>0.3106213714361249</v>
       </c>
       <c r="Q5">
-        <v>15.89825641296822</v>
+        <v>25.845619344818</v>
       </c>
       <c r="R5">
-        <v>143.084307716714</v>
+        <v>232.610574103362</v>
       </c>
       <c r="S5">
-        <v>0.000576718891981762</v>
+        <v>0.05573904602774372</v>
       </c>
       <c r="T5">
-        <v>0.000576718891981762</v>
+        <v>0.0557390460277437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.673579</v>
       </c>
       <c r="I6">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J6">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.290191</v>
       </c>
       <c r="O6">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="P6">
-        <v>0.03504699405682875</v>
+        <v>0.03085709917216154</v>
       </c>
       <c r="Q6">
         <v>2.567501507065445</v>
@@ -818,10 +818,10 @@
         <v>23.107513563589</v>
       </c>
       <c r="S6">
-        <v>9.313767408534543E-05</v>
+        <v>0.005537111831963719</v>
       </c>
       <c r="T6">
-        <v>9.313767408534543E-05</v>
+        <v>0.005537111831963719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.673579</v>
       </c>
       <c r="I7">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J7">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>134.239002</v>
       </c>
       <c r="O7">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="P7">
-        <v>0.7479381000177296</v>
+        <v>0.6585215293917135</v>
       </c>
       <c r="Q7">
         <v>54.79306430312867</v>
@@ -880,10 +880,10 @@
         <v>493.137578728158</v>
       </c>
       <c r="S7">
-        <v>0.001987651633760888</v>
+        <v>0.1181675351806012</v>
       </c>
       <c r="T7">
-        <v>0.001987651633760888</v>
+        <v>0.1181675351806012</v>
       </c>
     </row>
   </sheetData>
